--- a/TankNode/Project Outputs for TankNode-PrjPCB/BOM/Bill of Materials-TankNode-BomDoc.xlsx
+++ b/TankNode/Project Outputs for TankNode-PrjPCB/BOM/Bill of Materials-TankNode-BomDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\TankNode\Project Outputs for TankNode-PrjPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8629A241-A276-4341-B900-103B3355C361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3295A307-412D-43C5-A9A1-CD9B587ACF6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6825" xr2:uid="{AA092574-3384-4D37-8058-4045943967EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6825" xr2:uid="{4D67B7D4-2408-42B7-A65C-81E8AFDC2D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TankNode-BomD" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8153512-9BCE-43AF-91A2-1A9598135769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC53E25-8063-47AA-9772-1AEDE43C6E11}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/TankNode/Project Outputs for TankNode-PrjPCB/BOM/Bill of Materials-TankNode-BomDoc.xlsx
+++ b/TankNode/Project Outputs for TankNode-PrjPCB/BOM/Bill of Materials-TankNode-BomDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\TankNode\Project Outputs for TankNode-PrjPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3295A307-412D-43C5-A9A1-CD9B587ACF6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{455348C4-FC89-4200-B8EA-BD5186031F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6825" xr2:uid="{4D67B7D4-2408-42B7-A65C-81E8AFDC2D3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6825" xr2:uid="{06D83F44-996D-463E-88A1-7C9D97CFC71D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TankNode-BomD" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC53E25-8063-47AA-9772-1AEDE43C6E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4485FD2F-413C-43ED-912A-4A674BCD992E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/TankNode/Project Outputs for TankNode-PrjPCB/BOM/Bill of Materials-TankNode-BomDoc.xlsx
+++ b/TankNode/Project Outputs for TankNode-PrjPCB/BOM/Bill of Materials-TankNode-BomDoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\TankNode\Project Outputs for TankNode-PrjPCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAV-CAN-MODULES\TankNode\Project Outputs for TankNode-PrjPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455348C4-FC89-4200-B8EA-BD5186031F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB24934-9B1B-4A51-B7B7-BE68AEEE1BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6825" xr2:uid="{06D83F44-996D-463E-88A1-7C9D97CFC71D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{B9F79819-0587-4FA5-802E-D1AC35FEAD7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-TankNode-BomD" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -478,6 +485,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -530,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,9 +554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -586,7 +594,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -692,7 +700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -841,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4485FD2F-413C-43ED-912A-4A674BCD992E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3516EEA5-1EC1-4946-8CE3-73AE6DC3CF56}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1712,6 +1720,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>